--- a/natmiOut/OldD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H2">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I2">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J2">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N2">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P2">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q2">
-        <v>33.36003978344835</v>
+        <v>55.96957847967501</v>
       </c>
       <c r="R2">
-        <v>33.36003978344835</v>
+        <v>503.726206317075</v>
       </c>
       <c r="S2">
-        <v>0.01829186692180583</v>
+        <v>0.02933009535048062</v>
       </c>
       <c r="T2">
-        <v>0.01829186692180583</v>
+        <v>0.02933009535048062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H3">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I3">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J3">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N3">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P3">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q3">
-        <v>17.99463237866484</v>
+        <v>29.307550602106</v>
       </c>
       <c r="R3">
-        <v>17.99463237866484</v>
+        <v>263.767955418954</v>
       </c>
       <c r="S3">
-        <v>0.009866757441358526</v>
+        <v>0.01535822275240041</v>
       </c>
       <c r="T3">
-        <v>0.009866757441358526</v>
+        <v>0.0153582227524004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H4">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I4">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J4">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N4">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P4">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q4">
-        <v>22.75135451724432</v>
+        <v>37.099215309786</v>
       </c>
       <c r="R4">
-        <v>22.75135451724432</v>
+        <v>333.8929377880739</v>
       </c>
       <c r="S4">
-        <v>0.01247494762661344</v>
+        <v>0.01944133852748558</v>
       </c>
       <c r="T4">
-        <v>0.01247494762661344</v>
+        <v>0.01944133852748558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H5">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I5">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J5">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N5">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P5">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q5">
-        <v>155.9142229065505</v>
+        <v>160.9118251864084</v>
       </c>
       <c r="R5">
-        <v>155.9142229065505</v>
+        <v>1448.206426677675</v>
       </c>
       <c r="S5">
-        <v>0.08549037216791325</v>
+        <v>0.08432365052474182</v>
       </c>
       <c r="T5">
-        <v>0.08549037216791325</v>
+        <v>0.08432365052474182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H6">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I6">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J6">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N6">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P6">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q6">
-        <v>84.10119238528591</v>
+        <v>84.25883466034068</v>
       </c>
       <c r="R6">
-        <v>84.10119238528591</v>
+        <v>758.3295119430661</v>
       </c>
       <c r="S6">
-        <v>0.04611408826437022</v>
+        <v>0.04415469477951522</v>
       </c>
       <c r="T6">
-        <v>0.04611408826437022</v>
+        <v>0.04415469477951522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H7">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I7">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J7">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N7">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P7">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q7">
-        <v>106.3325998006623</v>
+        <v>106.659771444394</v>
       </c>
       <c r="R7">
-        <v>106.3325998006623</v>
+        <v>959.937942999546</v>
       </c>
       <c r="S7">
-        <v>0.05830394021197712</v>
+        <v>0.0558936006219983</v>
       </c>
       <c r="T7">
-        <v>0.05830394021197712</v>
+        <v>0.0558936006219983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H8">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I8">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J8">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.8108739930338</v>
+        <v>17.33599166666667</v>
       </c>
       <c r="N8">
-        <v>16.8108739930338</v>
+        <v>52.007975</v>
       </c>
       <c r="O8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="P8">
-        <v>0.4501663532412932</v>
+        <v>0.4573561888773979</v>
       </c>
       <c r="Q8">
-        <v>631.7227146823265</v>
+        <v>655.8751557877583</v>
       </c>
       <c r="R8">
-        <v>631.7227146823265</v>
+        <v>5902.876402089825</v>
       </c>
       <c r="S8">
-        <v>0.3463841141515741</v>
+        <v>0.3437024430021754</v>
       </c>
       <c r="T8">
-        <v>0.3463841141515741</v>
+        <v>0.3437024430021755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H9">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I9">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J9">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.067899781666011</v>
+        <v>9.077707333333334</v>
       </c>
       <c r="N9">
-        <v>9.067899781666011</v>
+        <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="P9">
-        <v>0.2428227930303719</v>
+        <v>0.2394870573052156</v>
       </c>
       <c r="Q9">
-        <v>340.7555293624293</v>
+        <v>343.4382541203927</v>
       </c>
       <c r="R9">
-        <v>340.7555293624293</v>
+        <v>3090.944287083534</v>
       </c>
       <c r="S9">
-        <v>0.1868419473246431</v>
+        <v>0.1799741397733</v>
       </c>
       <c r="T9">
-        <v>0.1868419473246431</v>
+        <v>0.1799741397733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H10">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I10">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J10">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.4649190001865</v>
+        <v>11.491094</v>
       </c>
       <c r="N10">
-        <v>11.4649190001865</v>
+        <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="P10">
-        <v>0.307010853728335</v>
+        <v>0.3031567538173866</v>
       </c>
       <c r="Q10">
-        <v>430.8312439562665</v>
+        <v>434.7442714750059</v>
       </c>
       <c r="R10">
-        <v>430.8312439562665</v>
+        <v>3912.698443275054</v>
       </c>
       <c r="S10">
-        <v>0.2362319658897444</v>
+        <v>0.2278218146679027</v>
       </c>
       <c r="T10">
-        <v>0.2362319658897444</v>
+        <v>0.2278218146679027</v>
       </c>
     </row>
   </sheetData>
